--- a/fahasa_complete_books.xlsx
+++ b/fahasa_complete_books.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,26 +539,31 @@
           <t>url_img</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>time_collect</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bác Hồ Viết Tuyên Ngôn Độc Lập - Ấn Bản Kỉ Niệm 80 Năm Quốc Khánh - Tặng Kèm Postcard - Độc Quyền Fahasa</t>
+          <t>Test Book Time Collect</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kiều Mai Sơn</t>
+          <t>Test Author</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NXB Thế giới</t>
+          <t>Test Publisher</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Alpha Books</t>
+          <t>Nhà Xuất Bản Kim Đồng</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -568,39 +573,39 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kinh tế</t>
+          <t>Văn học</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>LỊCH SỬ - ĐỊA LÝ - TÔN...</t>
+          <t>Tiểu thuyết</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="I2" t="n">
-        <v>75000</v>
+        <v>120000</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Đã bán 1835</t>
+          <t>500+ đã bán</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1835</v>
+        <v>500</v>
       </c>
       <c r="O2" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -608,42 +613,51 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>19 x 13 cm</t>
+          <t>20.5 x 14.5 x 2 cm</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>https://www.fahasa.com/bac-ho-viet-tuyen-ngon-doc-lap-an-ban-ki-niem-80-nam-quoc-khanh-tang-kem-postcard-doc-quyen-fahasa.html?fhs_campaign=CATEGORY</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
+          <t>https://test-url-time-collect.com</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>https://test-image.jpg</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:43:41</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mưa Đỏ</t>
+          <t>Sách Test 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chu Lai</t>
+          <t>Tác giả 1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NXB Trẻ</t>
+          <t>NXB Test</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1980 Books</t>
+          <t>Nhà Xuất Bản Kim Đồng</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -653,36 +667,36 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tâm lý</t>
+          <t>Văn học</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>VĂN HỌC</t>
+          <t>Tiểu thuyết</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>184500</v>
+        <v>100000</v>
       </c>
       <c r="I3" t="n">
-        <v>184500</v>
+        <v>80000</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Đã bán 355</t>
+          <t>100+ đã bán</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>355</v>
+        <v>100</v>
       </c>
       <c r="O3" t="n">
         <v>2022</v>
@@ -693,46 +707,51 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>379</v>
+        <v>200</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>24 x 16 cm</t>
+          <t>20 x 14 x 2 cm</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>https://www.fahasa.com/mua-do-643343.html?fhs_campaign=CATEGORY</t>
+          <t>https://test-book-1.com</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>https://cdn1.fahasa.com/media/catalog/product/m/u/muado.jpg</t>
+          <t>https://test-image-1.jpg</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:44:52</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bộ Toán 12 - Tập 2 (Chân Trời) (Chuẩn)</t>
+          <t>Sách Test 2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nhiều Tác Giả</t>
+          <t>Tác giả 2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NXB Thế giới</t>
+          <t>NXB Test</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nhã Nam</t>
+          <t>Nhà Xuất Bản Kim Đồng</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -742,39 +761,39 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Công nghệ</t>
+          <t>Văn học</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>GIÁO KHOA - THAM KHẢO</t>
+          <t>Tiểu thuyết</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>14000</v>
+        <v>110000</v>
       </c>
       <c r="I4" t="n">
-        <v>14000</v>
+        <v>88000</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>436</v>
+        <v>150</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Đã bán 1608</t>
+          <t>200+ đã bán</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1608</v>
+        <v>200</v>
       </c>
       <c r="O4" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -782,46 +801,51 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>20.5 x 14 cm</t>
+          <t>20 x 14 x 2 cm</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>https://www.fahasa.com/toan-12-tap-2-chan-troi-chuan.html?fhs_campaign=CATEGORY</t>
+          <t>https://test-book-2.com</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>https://cdn1.fahasa.com/media/catalog/product/9/7/9786040393357.jpg</t>
+          <t>https://test-image-2.jpg</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:44:52</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Búp Sen Xanh - Bìa Cứng - Tặng Kèm Obi + Postcard Hành Trình Cứu Nước - Độc Quyền Fahasa</t>
+          <t>Sách Test 3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sơn Tùng</t>
+          <t>Tác giả 3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NXB Văn học</t>
+          <t>NXB Test</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Alpha Books</t>
+          <t>Nhà Xuất Bản Kim Đồng</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -831,39 +855,39 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tâm lý</t>
+          <t>Văn học</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>THIẾU NHI</t>
+          <t>Tiểu thuyết</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="I5" t="n">
-        <v>10000</v>
+        <v>96000</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>393</v>
+        <v>200</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Đã bán 1851</t>
+          <t>300+ đã bán</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1851</v>
+        <v>300</v>
       </c>
       <c r="O5" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -871,46 +895,51 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="R5" t="n">
         <v>0.5</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>19 x 13 cm</t>
+          <t>20 x 14 x 2 cm</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>https://www.fahasa.com/bup-sen-xanh-bia-cung-tang-kem-obi-postcard-hanh-trinh-cuu-nuoc-doc-quyen-fahasa.html?fhs_campaign=CATEGORY</t>
+          <t>https://test-book-3.com</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>https://cdn1.fahasa.com/media/catalog/product/u/n/untitled-7.jpg</t>
+          <t>https://test-image-3.jpg</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:44:52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Vật Lí 12 (Kết Nối) (Chuẩn)</t>
+          <t>Nhà Giả Kim</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nhiều Tác Giả</t>
+          <t>Paulo Coelho</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NXB Kim Đồng</t>
+          <t>NXB Hội Nhà Văn</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Alpha Books</t>
+          <t>Nhà Xuất Bản Hội Nhà Văn</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -920,39 +949,39 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lịch sử</t>
+          <t>Văn học</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>GIÁO KHOA - THAM KHẢO</t>
+          <t>Tiểu thuyết</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>17000</v>
+        <v>89000</v>
       </c>
       <c r="I6" t="n">
-        <v>17000</v>
+        <v>67000</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
-        <v>424</v>
+        <v>1250</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Đã bán 616</t>
+          <t>2000+ đã bán</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>616</v>
+        <v>2000</v>
       </c>
       <c r="O6" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -960,46 +989,51 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>21 x 15 cm</t>
+          <t>20.5 x 14.5 x 1.5 cm</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>https://www.fahasa.com/vat-li-12-ket-noi-chuan.html?fhs_campaign=CATEGORY</t>
+          <t>https://www.fahasa.com/nha-gia-kim</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>https://cdn1.fahasa.com/media/catalog/product/9/7/9786040392565.jpg</t>
+          <t>https://cdn0.fahasa.com/media/catalog/product/n/h/nha-gia-kim.jpg</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:48:06</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bộ Toán 11 - Tập 2 (Chân Trời Sáng Tạo) (Chuẩn)</t>
+          <t>Đắc Nhân Tâm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nhiều Tác Giả</t>
+          <t>Dale Carnegie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NXB Thế giới</t>
+          <t>NXB Tổng Hợp TP.HCM</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AZ Việt Nam</t>
+          <t>First News</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1009,39 +1043,39 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Công nghệ</t>
+          <t>Kỹ năng sống</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>GIÁO KHOA - THAM KHẢO</t>
+          <t>Tâm lý học</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>16000</v>
+        <v>86000</v>
       </c>
       <c r="I7" t="n">
-        <v>16000</v>
+        <v>65000</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="L7" t="n">
-        <v>68</v>
+        <v>1800</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Đã bán 607</t>
+          <t>5000+ đã bán</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>607</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1049,36 +1083,41 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>20.5 x 14 cm</t>
+          <t>20.5 x 14.5 x 2 cm</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>https://www.fahasa.com/toan-11-tap-2-chan-troi-sang-tao-2023.html?fhs_campaign=CATEGORY</t>
+          <t>https://www.fahasa.com/dac-nhan-tam</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>https://cdn1.fahasa.com/media/catalog/product/9/7/9786040351968.jpg</t>
+          <t>https://cdn0.fahasa.com/media/catalog/product/d/a/dac-nhan-tam.jpg</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:48:06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bộ Chú Thuật Hồi Chiến - Tập 25 - Quyết Chiến Tại Tử Địa Shinjuku - Tặng Kèm Obi + Card Nhựa</t>
+          <t>Bác Hồ Viết Tuyên Ngôn Độc Lập - Ấn Bản Kỉ Niệm 80 Năm Quốc Khánh - Tặng Kèm Postcard - Độc Quyền Fahasa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gege Akutami</t>
+          <t>Kiều Mai Sơn</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1088,7 +1127,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1980 Books</t>
+          <t>Fahasa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1098,36 +1137,36 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lịch sử</t>
+          <t>Công nghệ</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>MANGA - COMIC</t>
+          <t>LỊCH SỬ - ĐỊA LÝ - TÔN...</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>28500</v>
+        <v>75000</v>
       </c>
       <c r="I8" t="n">
-        <v>28500</v>
+        <v>75000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Đã bán 122</t>
+          <t>Đã bán 1306</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>122</v>
+        <v>1306</v>
       </c>
       <c r="O8" t="n">
         <v>2020</v>
@@ -1138,10 +1177,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1150,20 +1189,25 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>https://www.fahasa.com/chu-thuat-hoi-chien-tap-25-quyet-chien-tai-tu-dia-shinjuku-tang-kem-obi-card-nhua.html?fhs_campaign=CATEGORY</t>
+          <t>https://www.fahasa.com/bac-ho-viet-tuyen-ngon-doc-lap-an-ban-ki-niem-80-nam-quoc-khanh-tang-kem-postcard-doc-quyen-fahasa.html?fhs_campaign=CATEGORY</t>
         </is>
       </c>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:50:32</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Global Success - Tiếng Anh 12 - Sách Học Sinh (2024)</t>
+          <t>Mưa Đỏ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hoàng Văn Vân, Vũ Hải Hà, Chu Quang Bình, Hoàng Thị Hồng Hải, Nguyễn Thị Kim Phượng</t>
+          <t>Chu Lai</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1173,7 +1217,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AZ Việt Nam</t>
+          <t>Nhã Nam</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1183,39 +1227,39 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Văn học</t>
+          <t>Lịch sử</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>GIÁO KHOA - THAM KHẢO</t>
+          <t>VĂN HỌC</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>67200</v>
+        <v>184500</v>
       </c>
       <c r="I9" t="n">
-        <v>67200</v>
+        <v>184500</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Đã bán 453</t>
+          <t>Đã bán 583</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>453</v>
+        <v>583</v>
       </c>
       <c r="O9" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1223,46 +1267,51 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>21 x 15 cm</t>
+          <t>19 x 13 cm</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>https://www.fahasa.com/tieng-anh-12-global-success-sach-hoc-sinh-y4.html?fhs_campaign=CATEGORY</t>
+          <t>https://www.fahasa.com/mua-do-643343.html?fhs_campaign=CATEGORY</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>https://cdn1.fahasa.com/media/catalog/product/9/7/9786040393708.jpg</t>
+          <t>https://cdn1.fahasa.com/media/catalog/product/m/u/muado.jpg</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:50:37</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bộ Chú Thuật Hồi Chiến - Tập 25 - Bản Đặc Biệt - Tặng Kèm Bìa PVC + Set Card + Hộp Đựng Card</t>
+          <t>Bộ Toán 12 - Tập 2 (Chân Trời) (Chuẩn)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gege Akutami</t>
+          <t>Nhiều Tác Giả</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NXB Văn học</t>
+          <t>NXB Trẻ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AZ Việt Nam</t>
+          <t>1980 Books</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1272,39 +1321,39 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kinh tế</t>
+          <t>Công nghệ</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>MANGA - COMIC</t>
+          <t>GIÁO KHOA - THAM KHẢO</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>83500</v>
+        <v>14000</v>
       </c>
       <c r="I10" t="n">
-        <v>83500</v>
+        <v>14000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Đã bán 433</t>
+          <t>Đã bán 1158</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>433</v>
+        <v>1158</v>
       </c>
       <c r="O10" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1312,32 +1361,41 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>19 x 13 cm</t>
+          <t>20.5 x 14 cm</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>https://www.fahasa.com/chu-thuat-hoi-chien-tap-25-ban-dac-biet-tang-kem-bia-pvc-set-card-hop-dung-card.html?fhs_campaign=CATEGORY</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr"/>
+          <t>https://www.fahasa.com/toan-12-tap-2-chan-troi-chuan.html?fhs_campaign=CATEGORY</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>https://cdn1.fahasa.com/media/catalog/product/9/7/9786040393357.jpg</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:50:41</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bộ Ngữ Văn 12 - Tập 2 (Kết Nối) (Chuẩn)</t>
+          <t>Búp Sen Xanh - Bìa Cứng - Tặng Kèm Obi + Postcard Hành Trình Cứu Nước - Độc Quyền Fahasa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nhiều Tác Giả</t>
+          <t>Sơn Tùng</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1347,7 +1405,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Fahasa</t>
+          <t>AZ Việt Nam</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1357,39 +1415,39 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Văn học</t>
+          <t>Lịch sử</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>GIÁO KHOA - THAM KHẢO</t>
+          <t>THIẾU NHI</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="I11" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>349</v>
+        <v>473</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Đã bán 1232</t>
+          <t>Đã bán 1560</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1232</v>
+        <v>1560</v>
       </c>
       <c r="O11" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1397,31 +1455,36 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>233</v>
+        <v>338</v>
       </c>
       <c r="R11" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>20.5 x 14 cm</t>
+          <t>24 x 16 cm</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>https://www.fahasa.com/ngu-van-12-tap-2-ket-noi-chuan.html?fhs_campaign=CATEGORY</t>
+          <t>https://www.fahasa.com/bup-sen-xanh-bia-cung-tang-kem-obi-postcard-hanh-trinh-cuu-nuoc-doc-quyen-fahasa.html?fhs_campaign=CATEGORY</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>https://cdn1.fahasa.com/media/catalog/product/9/7/9786040392770.jpg</t>
+          <t>https://cdn1.fahasa.com/media/catalog/product/u/n/untitled-7.jpg</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:50:46</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bộ Tập Viết 1 - Tập 1 (Chân Trời Sáng Tạo) (Chuẩn)</t>
+          <t>Vật Lí 12 (Kết Nối) (Chuẩn)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1431,7 +1494,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NXB Giáo dục</t>
+          <t>NXB Thế giới</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1446,7 +1509,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Công nghệ</t>
+          <t>Tâm lý</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1455,55 +1518,710 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="I12" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L12" t="n">
+        <v>387</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Đã bán 1007</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>1007</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Tiếng Việt</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>179</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>19 x 13 cm</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>https://www.fahasa.com/vat-li-12-ket-noi-chuan.html?fhs_campaign=CATEGORY</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>https://cdn1.fahasa.com/media/catalog/product/9/7/9786040392565.jpg</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:50:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Bộ Toán 11 - Tập 2 (Chân Trời Sáng Tạo) (Chuẩn)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nhiều Tác Giả</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NXB Văn học</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>AZ Việt Nam</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sách trong nước</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Công nghệ</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>GIÁO KHOA - THAM KHẢO</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>16000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>316</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Đã bán 1338</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>1338</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Tiếng Việt</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>124</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>21 x 15 cm</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>https://www.fahasa.com/toan-11-tap-2-chan-troi-sang-tao-2023.html?fhs_campaign=CATEGORY</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>https://cdn1.fahasa.com/media/catalog/product/9/7/9786040351968.jpg</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:50:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Bộ Chú Thuật Hồi Chiến - Tập 25 - Quyết Chiến Tại Tử Địa Shinjuku - Tặng Kèm Obi + Card Nhựa</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gege Akutami</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NXB Kim Đồng</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AZ Việt Nam</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Sách trong nước</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Văn học</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>MANGA - COMIC</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>28500</v>
+      </c>
+      <c r="I14" t="n">
+        <v>28500</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.5</v>
       </c>
-      <c r="L12" t="n">
-        <v>225</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Đã bán 903</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>903</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="L14" t="n">
+        <v>101</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Đã bán 719</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>719</v>
+      </c>
+      <c r="O14" t="n">
         <v>2023</v>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>Tiếng Việt</t>
         </is>
       </c>
-      <c r="Q12" t="n">
-        <v>335</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="Q14" t="n">
+        <v>321</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>25 x 18 cm</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>https://www.fahasa.com/chu-thuat-hoi-chien-tap-25-quyet-chien-tai-tu-dia-shinjuku-tang-kem-obi-card-nhua.html?fhs_campaign=CATEGORY</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:51:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Global Success - Tiếng Anh 12 - Sách Học Sinh (2024)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hoàng Văn Vân, Vũ Hải Hà, Chu Quang Bình, Hoàng Thị Hồng Hải, Nguyễn Thị Kim Phượng</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NXB Giáo dục</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Nhã Nam</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sách trong nước</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kinh tế</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>GIÁO KHOA - THAM KHẢO</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>67200</v>
+      </c>
+      <c r="I15" t="n">
+        <v>67200</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>130</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Đã bán 910</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>910</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2021</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Tiếng Việt</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>236</v>
+      </c>
+      <c r="R15" t="n">
         <v>2.2</v>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>19 x 13 cm</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>https://www.fahasa.com/tieng-anh-12-global-success-sach-hoc-sinh-y4.html?fhs_campaign=CATEGORY</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>https://cdn1.fahasa.com/media/catalog/product/9/7/9786040393708.jpg</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:51:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Bộ Chú Thuật Hồi Chiến - Tập 25 - Bản Đặc Biệt - Tặng Kèm Bìa PVC + Set Card + Hộp Đựng Card</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Gege Akutami</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NXB Trẻ</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fahasa</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Sách trong nước</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Văn học</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>MANGA - COMIC</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>83500</v>
+      </c>
+      <c r="I16" t="n">
+        <v>83500</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>481</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Đã bán 1583</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>1583</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Tiếng Việt</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>240</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>21 x 15 cm</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>https://www.fahasa.com/chu-thuat-hoi-chien-tap-25-ban-dac-biet-tang-kem-bia-pvc-set-card-hop-dung-card.html?fhs_campaign=CATEGORY</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:51:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sinh Học 11 (Chân Trời Sáng Tạo) (Chuẩn)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nhiều Tác Giả</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NXB Thế giới</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>AZ Việt Nam</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Sách trong nước</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Văn học</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>GIÁO KHOA - THAM KHẢO</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>26000</v>
+      </c>
+      <c r="I17" t="n">
+        <v>26000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>75</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Đã bán 1385</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>1385</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Tiếng Việt</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>274</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>21 x 15 cm</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>https://www.fahasa.com/sinh-hoc-11-ct-n3.html?fhs_campaign=CATEGORY</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>https://cdn1.fahasa.com/media/catalog/product/9/7/9786040351760.jpg</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:51:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bộ Ngữ Văn 12 - Tập 2 (Kết Nối) (Chuẩn)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nhiều Tác Giả</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NXB Kim Đồng</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>AZ Việt Nam</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sách trong nước</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tâm lý</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>GIÁO KHOA - THAM KHẢO</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>18000</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18000</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>319</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Đã bán 1496</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>1496</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Tiếng Việt</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>201</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S18" t="inlineStr">
         <is>
           <t>24 x 16 cm</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>https://www.fahasa.com/tap-viet-1-1-chan-troi-sang-tao-2023.html?fhs_campaign=CATEGORY</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>https://cdn1.fahasa.com/media/catalog/product/9/7/9786040287588_1.jpg</t>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>https://www.fahasa.com/ngu-van-12-tap-2-ket-noi-chuan.html?fhs_campaign=CATEGORY</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>https://cdn1.fahasa.com/media/catalog/product/9/7/9786040392770.jpg</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:51:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Bộ Vở Bài Tập Tiếng Việt 1 - Tập 1 (Chân Trời Sáng Tạo) (Chuẩn)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nhiều Tác Giả</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NXB Trẻ</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>AZ Việt Nam</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sách trong nước</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Văn học</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>GIÁO KHOA - THAM KHẢO</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I19" t="n">
+        <v>12000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>327</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Đã bán 562</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>562</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2024</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Tiếng Việt</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>325</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>19 x 13 cm</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>https://www.fahasa.com/vbt-tieng-viet-1-1-chan-troi-sang-tao-2023.html?fhs_campaign=CATEGORY</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>https://cdn1.fahasa.com/media/catalog/product/9/7/9786040287564_1.jpg</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:51:31</t>
         </is>
       </c>
     </row>
